--- a/topmeperp_v1/UploadFile/wage_form.xlsx
+++ b/topmeperp_v1/UploadFile/wage_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>九宮格</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -656,49 +656,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q18" s="2"/>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
